--- a/ISO/Practicas/Practica5/EjerciciosPracticos.xlsx
+++ b/ISO/Practicas/Practica5/EjerciciosPracticos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54221\Desktop\ISO\Practicas\Practica5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610264BB-A320-493B-AABB-EE4C4F135B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA82B21-3738-47B9-86C2-E583CBBBE481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{3EA49197-06F4-44D4-9C04-1C590BE8638D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="48">
   <si>
     <t>Marco</t>
   </si>
@@ -163,12 +163,30 @@
   <si>
     <t>?</t>
   </si>
+  <si>
+    <t>A1*</t>
+  </si>
+  <si>
+    <t>B2*</t>
+  </si>
+  <si>
+    <t>B4*</t>
+  </si>
+  <si>
+    <t>C4*</t>
+  </si>
+  <si>
+    <t>C1*</t>
+  </si>
+  <si>
+    <t>A4*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,16 +200,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -285,11 +328,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,9 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,6 +458,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2514,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD5B96E-6F3C-4549-95E0-68A911D103D4}">
   <dimension ref="A2:BE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,26 +2828,26 @@
         <v>22</v>
       </c>
       <c r="AK4" s="12"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="21"/>
-      <c r="AV4" s="21"/>
-      <c r="AW4" s="21"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4" s="21"/>
-      <c r="AZ4" s="21"/>
-      <c r="BA4" s="21"/>
-      <c r="BB4" s="21"/>
-      <c r="BC4" s="21"/>
-      <c r="BD4" s="21"/>
-      <c r="BE4" s="21"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C5" s="18">
@@ -2745,26 +2895,26 @@
       <c r="AI5" s="15"/>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="13"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="21"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="21"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C6" s="18">
@@ -2812,26 +2962,26 @@
       <c r="AI6" s="15"/>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C7" s="18">
@@ -2883,26 +3033,26 @@
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="13"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="20"/>
+      <c r="BB7" s="20"/>
+      <c r="BC7" s="20"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="20"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C8" s="18">
@@ -2950,26 +3100,26 @@
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="13"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="20"/>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="20"/>
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="20"/>
+      <c r="BA8" s="20"/>
+      <c r="BB8" s="20"/>
+      <c r="BC8" s="20"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="20"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C9" s="18">
@@ -3017,26 +3167,26 @@
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="13"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20"/>
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C10" s="18">
@@ -3084,26 +3234,26 @@
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="13"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="21"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C11" s="18">
@@ -3151,137 +3301,137 @@
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
       <c r="AK11" s="13"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21"/>
-      <c r="BE11" s="21"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
     </row>
     <row r="12" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="S12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="V12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
       <c r="AK12" s="14"/>
-      <c r="AL12" s="21" t="s">
+      <c r="AL12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="21"/>
-      <c r="BD12" s="21"/>
-      <c r="BE12" s="21"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
@@ -3319,26 +3469,26 @@
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
       <c r="AK13" s="15"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="21"/>
-      <c r="AR13" s="21"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
     </row>
     <row r="14" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="15"/>
@@ -3376,26 +3526,26 @@
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
       <c r="AK14" s="15"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="20"/>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="20"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="20"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
@@ -3501,32 +3651,34 @@
         <v>22</v>
       </c>
       <c r="AK15" s="12"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -3534,10 +3686,16 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+      <c r="N16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
@@ -3547,46 +3705,52 @@
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
+      <c r="Y16" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="AG16" s="15"/>
       <c r="AH16" s="15"/>
       <c r="AI16" s="15"/>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="13"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
+      <c r="AW16" s="20"/>
+      <c r="AX16" s="20"/>
+      <c r="AY16" s="20"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="20"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="20"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="20"/>
     </row>
     <row r="17" spans="2:57" x14ac:dyDescent="0.25">
       <c r="C17" s="18">
         <v>2</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -3594,51 +3758,65 @@
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="M17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="Q17" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
+      <c r="W17" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
+      <c r="Z17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
+      <c r="AE17" s="22"/>
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
+      <c r="AH17" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
       <c r="AK17" s="13"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="20"/>
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="20"/>
+      <c r="BC17" s="20"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
     </row>
     <row r="18" spans="2:57" x14ac:dyDescent="0.25">
       <c r="C18" s="18">
@@ -3646,20 +3824,32 @@
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="N18" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+      <c r="P18" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+      <c r="R18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
@@ -3668,36 +3858,38 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
+      <c r="AB18" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
+      <c r="AE18" s="22"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
       <c r="AK18" s="13"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="21"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="21"/>
-      <c r="AQ18" s="21"/>
-      <c r="AR18" s="21"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
-      <c r="BB18" s="21"/>
-      <c r="BC18" s="21"/>
-      <c r="BD18" s="21"/>
-      <c r="BE18" s="21"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="20"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
     </row>
     <row r="19" spans="2:57" x14ac:dyDescent="0.25">
       <c r="C19" s="18">
@@ -3706,14 +3898,18 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="N19" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
@@ -3721,42 +3917,50 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
+      <c r="V19" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
+      <c r="X19" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG19" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="AH19" s="15"/>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
       <c r="AK19" s="13"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="21"/>
-      <c r="AQ19" s="21"/>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
     </row>
     <row r="20" spans="2:57" x14ac:dyDescent="0.25">
       <c r="C20" s="18">
@@ -3767,7 +3971,9 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="I20" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -3776,7 +3982,9 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
+      <c r="R20" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
@@ -3784,38 +3992,40 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
+      <c r="Z20" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
+      <c r="AE20" s="22"/>
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
       <c r="AK20" s="13"/>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="21"/>
-      <c r="AN20" s="21"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="21"/>
-      <c r="AQ20" s="21"/>
-      <c r="AR20" s="21"/>
-      <c r="AS20" s="21"/>
-      <c r="AT20" s="21"/>
-      <c r="AU20" s="21"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="21"/>
-      <c r="AY20" s="21"/>
-      <c r="AZ20" s="21"/>
-      <c r="BA20" s="21"/>
-      <c r="BB20" s="21"/>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="21"/>
-      <c r="BE20" s="21"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="20"/>
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
     </row>
     <row r="21" spans="2:57" x14ac:dyDescent="0.25">
       <c r="C21" s="18">
@@ -3827,7 +4037,9 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -3837,7 +4049,9 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="T21" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
@@ -3846,35 +4060,37 @@
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
+      <c r="AC21" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
+      <c r="AE21" s="22"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
       <c r="AJ21" s="15"/>
       <c r="AK21" s="13"/>
-      <c r="AL21" s="21"/>
-      <c r="AM21" s="21"/>
-      <c r="AN21" s="21"/>
-      <c r="AO21" s="21"/>
-      <c r="AP21" s="21"/>
-      <c r="AQ21" s="21"/>
-      <c r="AR21" s="21"/>
-      <c r="AS21" s="21"/>
-      <c r="AT21" s="21"/>
-      <c r="AU21" s="21"/>
-      <c r="AV21" s="21"/>
-      <c r="AW21" s="21"/>
-      <c r="AX21" s="21"/>
-      <c r="AY21" s="21"/>
-      <c r="AZ21" s="21"/>
-      <c r="BA21" s="21"/>
-      <c r="BB21" s="21"/>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="20"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
     </row>
     <row r="22" spans="2:57" x14ac:dyDescent="0.25">
       <c r="C22" s="18">
@@ -3887,7 +4103,9 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="K22" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
@@ -3897,7 +4115,9 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+      <c r="U22" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
@@ -3906,207 +4126,255 @@
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
+      <c r="AD22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE22" s="22"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="15"/>
       <c r="AK22" s="13"/>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="21"/>
-      <c r="AU22" s="21"/>
-      <c r="AV22" s="21"/>
-      <c r="AW22" s="21"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="21"/>
-      <c r="BB22" s="21"/>
-      <c r="BC22" s="21"/>
-      <c r="BD22" s="21"/>
-      <c r="BE22" s="21"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="20"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
     </row>
     <row r="23" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
+      <c r="D23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
       <c r="AK23" s="14"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="21"/>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
+      <c r="AW23" s="20"/>
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="20"/>
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
     </row>
     <row r="24" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="21"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="21"/>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="21"/>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="20"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
     </row>
     <row r="25" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="21"/>
-      <c r="AO25" s="21"/>
-      <c r="AP25" s="21"/>
-      <c r="AQ25" s="21"/>
-      <c r="AR25" s="21"/>
-      <c r="AS25" s="21"/>
-      <c r="AT25" s="21"/>
-      <c r="AU25" s="21"/>
-      <c r="AV25" s="21"/>
-      <c r="AW25" s="21"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
     </row>
     <row r="26" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="15"/>
@@ -4160,51 +4428,117 @@
       <c r="AY26" s="15"/>
       <c r="AZ26" s="15"/>
       <c r="BA26" s="15"/>
-      <c r="BB26" s="21"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="21"/>
-      <c r="BE26" s="21"/>
-    </row>
-    <row r="27" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="20"/>
+      <c r="BE26" s="20"/>
+    </row>
+    <row r="27" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ27" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="AK27" s="16"/>
       <c r="AL27" s="16"/>
       <c r="AM27" s="16"/>
@@ -4222,48 +4556,56 @@
       <c r="AY27" s="16"/>
       <c r="AZ27" s="16"/>
       <c r="BA27" s="12"/>
-      <c r="BB27" s="21"/>
-      <c r="BC27" s="21"/>
-      <c r="BD27" s="21"/>
-      <c r="BE27" s="21"/>
+      <c r="BB27" s="20"/>
+      <c r="BC27" s="20"/>
+      <c r="BD27" s="20"/>
+      <c r="BE27" s="20"/>
     </row>
     <row r="28" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="C28" s="18">
+      <c r="C28" s="32">
         <v>1</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
+      <c r="D28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
       <c r="AK28" s="15"/>
       <c r="AL28" s="15"/>
       <c r="AM28" s="15"/>
@@ -4281,48 +4623,57 @@
       <c r="AY28" s="15"/>
       <c r="AZ28" s="15"/>
       <c r="BA28" s="13"/>
-      <c r="BB28" s="21"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
+      <c r="BB28" s="20"/>
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
     </row>
     <row r="29" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="C29" s="18">
+      <c r="B29" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="33">
         <v>2</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
       <c r="AK29" s="15"/>
       <c r="AL29" s="15"/>
       <c r="AM29" s="15"/>
@@ -4340,48 +4691,55 @@
       <c r="AY29" s="15"/>
       <c r="AZ29" s="15"/>
       <c r="BA29" s="13"/>
-      <c r="BB29" s="21"/>
-      <c r="BC29" s="21"/>
-      <c r="BD29" s="21"/>
-      <c r="BE29" s="21"/>
+      <c r="BB29" s="20"/>
+      <c r="BC29" s="20"/>
+      <c r="BD29" s="20"/>
+      <c r="BE29" s="20"/>
     </row>
     <row r="30" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="C30" s="18">
+      <c r="B30" s="20"/>
+      <c r="C30" s="33">
         <v>3</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="15"/>
       <c r="AM30" s="15"/>
@@ -4399,48 +4757,59 @@
       <c r="AY30" s="15"/>
       <c r="AZ30" s="15"/>
       <c r="BA30" s="13"/>
-      <c r="BB30" s="21"/>
-      <c r="BC30" s="21"/>
-      <c r="BD30" s="21"/>
-      <c r="BE30" s="21"/>
+      <c r="BB30" s="20"/>
+      <c r="BC30" s="20"/>
+      <c r="BD30" s="20"/>
+      <c r="BE30" s="20"/>
     </row>
     <row r="31" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="C31" s="18">
+      <c r="B31" s="20"/>
+      <c r="C31" s="34">
         <v>4</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
       <c r="AK31" s="15"/>
       <c r="AL31" s="15"/>
       <c r="AM31" s="15"/>
@@ -4458,48 +4827,59 @@
       <c r="AY31" s="15"/>
       <c r="AZ31" s="15"/>
       <c r="BA31" s="13"/>
-      <c r="BB31" s="21"/>
-      <c r="BC31" s="21"/>
-      <c r="BD31" s="21"/>
-      <c r="BE31" s="21"/>
+      <c r="BB31" s="20"/>
+      <c r="BC31" s="20"/>
+      <c r="BD31" s="20"/>
+      <c r="BE31" s="20"/>
     </row>
     <row r="32" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="C32" s="18">
+      <c r="B32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="34">
         <v>5</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
-      <c r="AJ32" s="15"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
       <c r="AK32" s="15"/>
       <c r="AL32" s="15"/>
       <c r="AM32" s="15"/>
@@ -4517,48 +4897,55 @@
       <c r="AY32" s="15"/>
       <c r="AZ32" s="15"/>
       <c r="BA32" s="13"/>
-      <c r="BB32" s="21"/>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-    </row>
-    <row r="33" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C33" s="18">
+      <c r="BB32" s="20"/>
+      <c r="BC32" s="20"/>
+      <c r="BD32" s="20"/>
+      <c r="BE32" s="20"/>
+    </row>
+    <row r="33" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B33" s="20"/>
+      <c r="C33" s="34">
         <v>6</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="15"/>
-      <c r="AJ33" s="15"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
       <c r="AK33" s="15"/>
       <c r="AL33" s="15"/>
       <c r="AM33" s="15"/>
@@ -4576,48 +4963,55 @@
       <c r="AY33" s="15"/>
       <c r="AZ33" s="15"/>
       <c r="BA33" s="13"/>
-      <c r="BB33" s="21"/>
-      <c r="BC33" s="21"/>
-      <c r="BD33" s="21"/>
-      <c r="BE33" s="21"/>
-    </row>
-    <row r="34" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C34" s="18">
-        <v>7</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="15"/>
-      <c r="AI34" s="15"/>
-      <c r="AJ34" s="15"/>
+      <c r="BB33" s="20"/>
+      <c r="BC33" s="20"/>
+      <c r="BD33" s="20"/>
+      <c r="BE33" s="20"/>
+    </row>
+    <row r="34" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="35">
+        <v>7</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
       <c r="AK34" s="15"/>
       <c r="AL34" s="15"/>
       <c r="AM34" s="15"/>
@@ -4635,48 +5029,55 @@
       <c r="AY34" s="15"/>
       <c r="AZ34" s="15"/>
       <c r="BA34" s="13"/>
-      <c r="BB34" s="21"/>
-      <c r="BC34" s="21"/>
-      <c r="BD34" s="21"/>
-      <c r="BE34" s="21"/>
-    </row>
-    <row r="35" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C35" s="18">
+      <c r="BB34" s="20"/>
+      <c r="BC34" s="20"/>
+      <c r="BD34" s="20"/>
+      <c r="BE34" s="20"/>
+    </row>
+    <row r="35" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B35" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="35">
         <v>8</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="15"/>
-      <c r="AI35" s="15"/>
-      <c r="AJ35" s="15"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
       <c r="AK35" s="15"/>
       <c r="AL35" s="15"/>
       <c r="AM35" s="15"/>
@@ -4694,48 +5095,54 @@
       <c r="AY35" s="15"/>
       <c r="AZ35" s="15"/>
       <c r="BA35" s="13"/>
-      <c r="BB35" s="21"/>
-      <c r="BC35" s="21"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-    </row>
-    <row r="36" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C36" s="19">
+      <c r="BB35" s="20"/>
+      <c r="BC35" s="20"/>
+      <c r="BD35" s="20"/>
+      <c r="BE35" s="20"/>
+    </row>
+    <row r="36" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="36">
         <v>9</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="15"/>
-      <c r="AH36" s="15"/>
-      <c r="AI36" s="15"/>
-      <c r="AJ36" s="15"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
       <c r="AK36" s="15"/>
       <c r="AL36" s="15"/>
       <c r="AM36" s="15"/>
@@ -4753,278 +5160,384 @@
       <c r="AY36" s="15"/>
       <c r="AZ36" s="15"/>
       <c r="BA36" s="13"/>
-      <c r="BB36" s="21"/>
-      <c r="BC36" s="21"/>
-      <c r="BD36" s="21"/>
-      <c r="BE36" s="21"/>
-    </row>
-    <row r="37" spans="3:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="20" t="s">
+      <c r="BB36" s="20"/>
+      <c r="BC36" s="20"/>
+      <c r="BD36" s="20"/>
+      <c r="BE36" s="20"/>
+    </row>
+    <row r="37" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="22"/>
-      <c r="AR37" s="22"/>
-      <c r="AS37" s="22"/>
-      <c r="AT37" s="22"/>
-      <c r="AU37" s="22"/>
-      <c r="AV37" s="22"/>
-      <c r="AW37" s="22"/>
-      <c r="AX37" s="22"/>
-      <c r="AY37" s="22"/>
-      <c r="AZ37" s="22"/>
+      <c r="D37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="21"/>
       <c r="BA37" s="14"/>
-      <c r="BB37" s="21"/>
-      <c r="BC37" s="21"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="21"/>
-    </row>
-    <row r="38" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
-      <c r="AJ38" s="21"/>
-      <c r="AK38" s="21"/>
-      <c r="AL38" s="21"/>
-      <c r="AM38" s="21"/>
-      <c r="AN38" s="21"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="21"/>
-      <c r="AQ38" s="21"/>
-      <c r="AR38" s="21"/>
-      <c r="AS38" s="21"/>
-      <c r="AT38" s="21"/>
-      <c r="AU38" s="21"/>
-      <c r="AV38" s="21"/>
-      <c r="AW38" s="21"/>
-      <c r="AX38" s="21"/>
-      <c r="AY38" s="21"/>
-      <c r="AZ38" s="21"/>
-      <c r="BA38" s="21"/>
-      <c r="BB38" s="21"/>
-      <c r="BC38" s="21"/>
-      <c r="BD38" s="21"/>
-      <c r="BE38" s="21"/>
-    </row>
-    <row r="39" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
-      <c r="AI39" s="21"/>
-      <c r="AJ39" s="21"/>
-      <c r="AK39" s="21"/>
-      <c r="AL39" s="21"/>
-      <c r="AM39" s="21"/>
-      <c r="AN39" s="21"/>
-      <c r="AO39" s="21"/>
-      <c r="AP39" s="21"/>
-      <c r="AQ39" s="21"/>
-      <c r="AR39" s="21"/>
-      <c r="AS39" s="21"/>
-      <c r="AT39" s="21"/>
-      <c r="AU39" s="21"/>
-      <c r="AV39" s="21"/>
-      <c r="AW39" s="21"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="21"/>
-      <c r="BA39" s="21"/>
-      <c r="BB39" s="21"/>
-      <c r="BC39" s="21"/>
-      <c r="BD39" s="21"/>
-      <c r="BE39" s="21"/>
-    </row>
-    <row r="40" spans="3:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="21"/>
-      <c r="AK40" s="21"/>
-      <c r="AL40" s="21"/>
-      <c r="AM40" s="21"/>
-      <c r="AN40" s="21"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="21"/>
-      <c r="AQ40" s="21"/>
-      <c r="AR40" s="21"/>
-      <c r="AS40" s="21"/>
-      <c r="AT40" s="21"/>
-      <c r="AU40" s="21"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="21"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="21"/>
-      <c r="BA40" s="21"/>
-      <c r="BB40" s="21"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="21"/>
-      <c r="BE40" s="21"/>
-    </row>
-    <row r="41" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BB37" s="20"/>
+      <c r="BC37" s="20"/>
+      <c r="BD37" s="20"/>
+      <c r="BE37" s="20"/>
+    </row>
+    <row r="38" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AQ38" s="20"/>
+      <c r="AR38" s="20"/>
+      <c r="AS38" s="20"/>
+      <c r="AT38" s="20"/>
+      <c r="AU38" s="20"/>
+      <c r="AV38" s="20"/>
+      <c r="AW38" s="20"/>
+      <c r="AX38" s="20"/>
+      <c r="AY38" s="20"/>
+      <c r="AZ38" s="20"/>
+      <c r="BA38" s="20"/>
+      <c r="BB38" s="20"/>
+      <c r="BC38" s="20"/>
+      <c r="BD38" s="20"/>
+      <c r="BE38" s="20"/>
+    </row>
+    <row r="39" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="20"/>
+      <c r="AR39" s="20"/>
+      <c r="AS39" s="20"/>
+      <c r="AT39" s="20"/>
+      <c r="AU39" s="20"/>
+      <c r="AV39" s="20"/>
+      <c r="AW39" s="20"/>
+      <c r="AX39" s="20"/>
+      <c r="AY39" s="20"/>
+      <c r="AZ39" s="20"/>
+      <c r="BA39" s="20"/>
+      <c r="BB39" s="20"/>
+      <c r="BC39" s="20"/>
+      <c r="BD39" s="20"/>
+      <c r="BE39" s="20"/>
+    </row>
+    <row r="40" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="20"/>
+      <c r="AO40" s="20"/>
+      <c r="AP40" s="20"/>
+      <c r="AQ40" s="20"/>
+      <c r="AR40" s="20"/>
+      <c r="AS40" s="20"/>
+      <c r="AT40" s="20"/>
+      <c r="AU40" s="20"/>
+      <c r="AV40" s="20"/>
+      <c r="AW40" s="20"/>
+      <c r="AX40" s="20"/>
+      <c r="AY40" s="20"/>
+      <c r="AZ40" s="20"/>
+      <c r="BA40" s="20"/>
+      <c r="BB40" s="20"/>
+      <c r="BC40" s="20"/>
+      <c r="BD40" s="20"/>
+      <c r="BE40" s="20"/>
+    </row>
+    <row r="41" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="16"/>
-      <c r="AI41" s="16"/>
-      <c r="AJ41" s="16"/>
+      <c r="D41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="X41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ41" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="AK41" s="16"/>
       <c r="AL41" s="16"/>
       <c r="AM41" s="16"/>
@@ -5042,48 +5555,48 @@
       <c r="AY41" s="16"/>
       <c r="AZ41" s="16"/>
       <c r="BA41" s="12"/>
-      <c r="BB41" s="21"/>
-      <c r="BC41" s="21"/>
-      <c r="BD41" s="21"/>
-      <c r="BE41" s="21"/>
-    </row>
-    <row r="42" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C42" s="18">
+      <c r="BB41" s="20"/>
+      <c r="BC41" s="20"/>
+      <c r="BD41" s="20"/>
+      <c r="BE41" s="20"/>
+    </row>
+    <row r="42" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="C42" s="32">
         <v>1</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="15"/>
-      <c r="AI42" s="15"/>
-      <c r="AJ42" s="15"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
       <c r="AK42" s="15"/>
       <c r="AL42" s="15"/>
       <c r="AM42" s="15"/>
@@ -5101,48 +5614,51 @@
       <c r="AY42" s="15"/>
       <c r="AZ42" s="15"/>
       <c r="BA42" s="13"/>
-      <c r="BB42" s="21"/>
-      <c r="BC42" s="21"/>
-      <c r="BD42" s="21"/>
-      <c r="BE42" s="21"/>
-    </row>
-    <row r="43" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C43" s="18">
+      <c r="BB42" s="20"/>
+      <c r="BC42" s="20"/>
+      <c r="BD42" s="20"/>
+      <c r="BE42" s="20"/>
+    </row>
+    <row r="43" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="33">
         <v>2</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="15"/>
-      <c r="AH43" s="15"/>
-      <c r="AI43" s="15"/>
-      <c r="AJ43" s="15"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
       <c r="AK43" s="15"/>
       <c r="AL43" s="15"/>
       <c r="AM43" s="15"/>
@@ -5160,48 +5676,49 @@
       <c r="AY43" s="15"/>
       <c r="AZ43" s="15"/>
       <c r="BA43" s="13"/>
-      <c r="BB43" s="21"/>
-      <c r="BC43" s="21"/>
-      <c r="BD43" s="21"/>
-      <c r="BE43" s="21"/>
-    </row>
-    <row r="44" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C44" s="18">
+      <c r="BB43" s="20"/>
+      <c r="BC43" s="20"/>
+      <c r="BD43" s="20"/>
+      <c r="BE43" s="20"/>
+    </row>
+    <row r="44" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+      <c r="C44" s="33">
         <v>3</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15"/>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="15"/>
-      <c r="AG44" s="15"/>
-      <c r="AH44" s="15"/>
-      <c r="AI44" s="15"/>
-      <c r="AJ44" s="15"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
       <c r="AK44" s="15"/>
       <c r="AL44" s="15"/>
       <c r="AM44" s="15"/>
@@ -5219,48 +5736,49 @@
       <c r="AY44" s="15"/>
       <c r="AZ44" s="15"/>
       <c r="BA44" s="13"/>
-      <c r="BB44" s="21"/>
-      <c r="BC44" s="21"/>
-      <c r="BD44" s="21"/>
-      <c r="BE44" s="21"/>
-    </row>
-    <row r="45" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C45" s="18">
+      <c r="BB44" s="20"/>
+      <c r="BC44" s="20"/>
+      <c r="BD44" s="20"/>
+      <c r="BE44" s="20"/>
+    </row>
+    <row r="45" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B45" s="20"/>
+      <c r="C45" s="34">
         <v>4</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="15"/>
-      <c r="AH45" s="15"/>
-      <c r="AI45" s="15"/>
-      <c r="AJ45" s="15"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="27"/>
+      <c r="AI45" s="27"/>
+      <c r="AJ45" s="27"/>
       <c r="AK45" s="15"/>
       <c r="AL45" s="15"/>
       <c r="AM45" s="15"/>
@@ -5278,48 +5796,51 @@
       <c r="AY45" s="15"/>
       <c r="AZ45" s="15"/>
       <c r="BA45" s="13"/>
-      <c r="BB45" s="21"/>
-      <c r="BC45" s="21"/>
-      <c r="BD45" s="21"/>
-      <c r="BE45" s="21"/>
-    </row>
-    <row r="46" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C46" s="18">
+      <c r="BB45" s="20"/>
+      <c r="BC45" s="20"/>
+      <c r="BD45" s="20"/>
+      <c r="BE45" s="20"/>
+    </row>
+    <row r="46" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B46" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="34">
         <v>5</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="15"/>
-      <c r="AI46" s="15"/>
-      <c r="AJ46" s="15"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="27"/>
+      <c r="AH46" s="27"/>
+      <c r="AI46" s="27"/>
+      <c r="AJ46" s="27"/>
       <c r="AK46" s="15"/>
       <c r="AL46" s="15"/>
       <c r="AM46" s="15"/>
@@ -5337,48 +5858,49 @@
       <c r="AY46" s="15"/>
       <c r="AZ46" s="15"/>
       <c r="BA46" s="13"/>
-      <c r="BB46" s="21"/>
-      <c r="BC46" s="21"/>
-      <c r="BD46" s="21"/>
-      <c r="BE46" s="21"/>
-    </row>
-    <row r="47" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C47" s="18">
+      <c r="BB46" s="20"/>
+      <c r="BC46" s="20"/>
+      <c r="BD46" s="20"/>
+      <c r="BE46" s="20"/>
+    </row>
+    <row r="47" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B47" s="20"/>
+      <c r="C47" s="34">
         <v>6</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="15"/>
-      <c r="AE47" s="15"/>
-      <c r="AF47" s="15"/>
-      <c r="AG47" s="15"/>
-      <c r="AH47" s="15"/>
-      <c r="AI47" s="15"/>
-      <c r="AJ47" s="15"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="27"/>
+      <c r="AJ47" s="27"/>
       <c r="AK47" s="15"/>
       <c r="AL47" s="15"/>
       <c r="AM47" s="15"/>
@@ -5396,48 +5918,49 @@
       <c r="AY47" s="15"/>
       <c r="AZ47" s="15"/>
       <c r="BA47" s="13"/>
-      <c r="BB47" s="21"/>
-      <c r="BC47" s="21"/>
-      <c r="BD47" s="21"/>
-      <c r="BE47" s="21"/>
-    </row>
-    <row r="48" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C48" s="18">
-        <v>7</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15"/>
-      <c r="AE48" s="15"/>
-      <c r="AF48" s="15"/>
-      <c r="AG48" s="15"/>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="15"/>
-      <c r="AJ48" s="15"/>
+      <c r="BB47" s="20"/>
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="20"/>
+      <c r="BE47" s="20"/>
+    </row>
+    <row r="48" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="C48" s="35">
+        <v>7</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
       <c r="AK48" s="15"/>
       <c r="AL48" s="15"/>
       <c r="AM48" s="15"/>
@@ -5455,48 +5978,51 @@
       <c r="AY48" s="15"/>
       <c r="AZ48" s="15"/>
       <c r="BA48" s="13"/>
-      <c r="BB48" s="21"/>
-      <c r="BC48" s="21"/>
-      <c r="BD48" s="21"/>
-      <c r="BE48" s="21"/>
-    </row>
-    <row r="49" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C49" s="18">
+      <c r="BB48" s="20"/>
+      <c r="BC48" s="20"/>
+      <c r="BD48" s="20"/>
+      <c r="BE48" s="20"/>
+    </row>
+    <row r="49" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B49" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="35">
         <v>8</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
-      <c r="AC49" s="15"/>
-      <c r="AD49" s="15"/>
-      <c r="AE49" s="15"/>
-      <c r="AF49" s="15"/>
-      <c r="AG49" s="15"/>
-      <c r="AH49" s="15"/>
-      <c r="AI49" s="15"/>
-      <c r="AJ49" s="15"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="28"/>
       <c r="AK49" s="15"/>
       <c r="AL49" s="15"/>
       <c r="AM49" s="15"/>
@@ -5514,48 +6040,48 @@
       <c r="AY49" s="15"/>
       <c r="AZ49" s="15"/>
       <c r="BA49" s="13"/>
-      <c r="BB49" s="21"/>
-      <c r="BC49" s="21"/>
-      <c r="BD49" s="21"/>
-      <c r="BE49" s="21"/>
-    </row>
-    <row r="50" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C50" s="19">
+      <c r="BB49" s="20"/>
+      <c r="BC49" s="20"/>
+      <c r="BD49" s="20"/>
+      <c r="BE49" s="20"/>
+    </row>
+    <row r="50" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="36">
         <v>9</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15"/>
-      <c r="AC50" s="15"/>
-      <c r="AD50" s="15"/>
-      <c r="AE50" s="15"/>
-      <c r="AF50" s="15"/>
-      <c r="AG50" s="15"/>
-      <c r="AH50" s="15"/>
-      <c r="AI50" s="15"/>
-      <c r="AJ50" s="15"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
       <c r="AK50" s="15"/>
       <c r="AL50" s="15"/>
       <c r="AM50" s="15"/>
@@ -5573,297 +6099,297 @@
       <c r="AY50" s="15"/>
       <c r="AZ50" s="15"/>
       <c r="BA50" s="13"/>
-      <c r="BB50" s="21"/>
-      <c r="BC50" s="21"/>
-      <c r="BD50" s="21"/>
-      <c r="BE50" s="21"/>
-    </row>
-    <row r="51" spans="3:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="20" t="s">
+      <c r="BB50" s="20"/>
+      <c r="BC50" s="20"/>
+      <c r="BD50" s="20"/>
+      <c r="BE50" s="20"/>
+    </row>
+    <row r="51" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="22"/>
-      <c r="AJ51" s="22"/>
-      <c r="AK51" s="22"/>
-      <c r="AL51" s="22"/>
-      <c r="AM51" s="22"/>
-      <c r="AN51" s="22"/>
-      <c r="AO51" s="22"/>
-      <c r="AP51" s="22"/>
-      <c r="AQ51" s="22"/>
-      <c r="AR51" s="22"/>
-      <c r="AS51" s="22"/>
-      <c r="AT51" s="22"/>
-      <c r="AU51" s="22"/>
-      <c r="AV51" s="22"/>
-      <c r="AW51" s="22"/>
-      <c r="AX51" s="22"/>
-      <c r="AY51" s="22"/>
-      <c r="AZ51" s="22"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="21"/>
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="21"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="21"/>
+      <c r="AK51" s="21"/>
+      <c r="AL51" s="21"/>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="21"/>
+      <c r="AO51" s="21"/>
+      <c r="AP51" s="21"/>
+      <c r="AQ51" s="21"/>
+      <c r="AR51" s="21"/>
+      <c r="AS51" s="21"/>
+      <c r="AT51" s="21"/>
+      <c r="AU51" s="21"/>
+      <c r="AV51" s="21"/>
+      <c r="AW51" s="21"/>
+      <c r="AX51" s="21"/>
+      <c r="AY51" s="21"/>
+      <c r="AZ51" s="21"/>
       <c r="BA51" s="14"/>
-      <c r="BB51" s="21"/>
-      <c r="BC51" s="21"/>
-      <c r="BD51" s="21"/>
-      <c r="BE51" s="21"/>
-    </row>
-    <row r="52" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="21"/>
-      <c r="AC52" s="21"/>
-      <c r="AD52" s="21"/>
-      <c r="AE52" s="21"/>
-      <c r="AF52" s="21"/>
-      <c r="AG52" s="21"/>
-      <c r="AH52" s="21"/>
-      <c r="AI52" s="21"/>
-      <c r="AJ52" s="21"/>
-      <c r="AK52" s="21"/>
-      <c r="AL52" s="21"/>
-      <c r="AM52" s="21"/>
-      <c r="AN52" s="21"/>
-      <c r="AO52" s="21"/>
-      <c r="AP52" s="21"/>
-      <c r="AQ52" s="21"/>
-      <c r="AR52" s="21"/>
-      <c r="AS52" s="21"/>
-      <c r="AT52" s="21"/>
-      <c r="AU52" s="21"/>
-      <c r="AV52" s="21"/>
-      <c r="AW52" s="21"/>
-      <c r="AX52" s="21"/>
-      <c r="AY52" s="21"/>
-      <c r="AZ52" s="21"/>
-      <c r="BA52" s="21"/>
-      <c r="BB52" s="21"/>
-      <c r="BC52" s="21"/>
-      <c r="BD52" s="21"/>
-      <c r="BE52" s="21"/>
-    </row>
-    <row r="53" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="21"/>
-      <c r="AG53" s="21"/>
-      <c r="AH53" s="21"/>
-      <c r="AI53" s="21"/>
-      <c r="AJ53" s="21"/>
-      <c r="AK53" s="21"/>
-      <c r="AL53" s="21"/>
-      <c r="AM53" s="21"/>
-      <c r="AN53" s="21"/>
-      <c r="AO53" s="21"/>
-      <c r="AP53" s="21"/>
-      <c r="AQ53" s="21"/>
-      <c r="AR53" s="21"/>
-      <c r="AS53" s="21"/>
-      <c r="AT53" s="21"/>
-      <c r="AU53" s="21"/>
-      <c r="AV53" s="21"/>
-      <c r="AW53" s="21"/>
-      <c r="AX53" s="21"/>
-      <c r="AY53" s="21"/>
-      <c r="AZ53" s="21"/>
-      <c r="BA53" s="21"/>
-      <c r="BB53" s="21"/>
-      <c r="BC53" s="21"/>
-      <c r="BD53" s="21"/>
-      <c r="BE53" s="21"/>
-    </row>
-    <row r="54" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
-      <c r="AE54" s="21"/>
-      <c r="AF54" s="21"/>
-      <c r="AG54" s="21"/>
-      <c r="AH54" s="21"/>
-      <c r="AI54" s="21"/>
-      <c r="AJ54" s="21"/>
-      <c r="AK54" s="21"/>
-      <c r="AL54" s="21"/>
-      <c r="AM54" s="21"/>
-      <c r="AN54" s="21"/>
-      <c r="AO54" s="21"/>
-      <c r="AP54" s="21"/>
-      <c r="AQ54" s="21"/>
-      <c r="AR54" s="21"/>
-      <c r="AS54" s="21"/>
-      <c r="AT54" s="21"/>
-      <c r="AU54" s="21"/>
-      <c r="AV54" s="21"/>
-      <c r="AW54" s="21"/>
-      <c r="AX54" s="21"/>
-      <c r="AY54" s="21"/>
-      <c r="AZ54" s="21"/>
-      <c r="BA54" s="21"/>
-      <c r="BB54" s="21"/>
-      <c r="BC54" s="21"/>
-      <c r="BD54" s="21"/>
-      <c r="BE54" s="21"/>
-    </row>
-    <row r="55" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
-      <c r="AE55" s="21"/>
-      <c r="AF55" s="21"/>
-      <c r="AG55" s="21"/>
-      <c r="AH55" s="21"/>
-      <c r="AI55" s="21"/>
-      <c r="AJ55" s="21"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="21"/>
-      <c r="AM55" s="21"/>
-      <c r="AN55" s="21"/>
-      <c r="AO55" s="21"/>
-      <c r="AP55" s="21"/>
-      <c r="AQ55" s="21"/>
-      <c r="AR55" s="21"/>
-      <c r="AS55" s="21"/>
-      <c r="AT55" s="21"/>
-      <c r="AU55" s="21"/>
-      <c r="AV55" s="21"/>
-      <c r="AW55" s="21"/>
-      <c r="AX55" s="21"/>
-      <c r="AY55" s="21"/>
-      <c r="AZ55" s="21"/>
-      <c r="BA55" s="21"/>
-      <c r="BB55" s="21"/>
-      <c r="BC55" s="21"/>
-      <c r="BD55" s="21"/>
-      <c r="BE55" s="21"/>
+      <c r="BB51" s="20"/>
+      <c r="BC51" s="20"/>
+      <c r="BD51" s="20"/>
+      <c r="BE51" s="20"/>
+    </row>
+    <row r="52" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="20"/>
+      <c r="AN52" s="20"/>
+      <c r="AO52" s="20"/>
+      <c r="AP52" s="20"/>
+      <c r="AQ52" s="20"/>
+      <c r="AR52" s="20"/>
+      <c r="AS52" s="20"/>
+      <c r="AT52" s="20"/>
+      <c r="AU52" s="20"/>
+      <c r="AV52" s="20"/>
+      <c r="AW52" s="20"/>
+      <c r="AX52" s="20"/>
+      <c r="AY52" s="20"/>
+      <c r="AZ52" s="20"/>
+      <c r="BA52" s="20"/>
+      <c r="BB52" s="20"/>
+      <c r="BC52" s="20"/>
+      <c r="BD52" s="20"/>
+      <c r="BE52" s="20"/>
+    </row>
+    <row r="53" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="20"/>
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="20"/>
+      <c r="AL53" s="20"/>
+      <c r="AM53" s="20"/>
+      <c r="AN53" s="20"/>
+      <c r="AO53" s="20"/>
+      <c r="AP53" s="20"/>
+      <c r="AQ53" s="20"/>
+      <c r="AR53" s="20"/>
+      <c r="AS53" s="20"/>
+      <c r="AT53" s="20"/>
+      <c r="AU53" s="20"/>
+      <c r="AV53" s="20"/>
+      <c r="AW53" s="20"/>
+      <c r="AX53" s="20"/>
+      <c r="AY53" s="20"/>
+      <c r="AZ53" s="20"/>
+      <c r="BA53" s="20"/>
+      <c r="BB53" s="20"/>
+      <c r="BC53" s="20"/>
+      <c r="BD53" s="20"/>
+      <c r="BE53" s="20"/>
+    </row>
+    <row r="54" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="20"/>
+      <c r="AI54" s="20"/>
+      <c r="AJ54" s="20"/>
+      <c r="AK54" s="20"/>
+      <c r="AL54" s="20"/>
+      <c r="AM54" s="20"/>
+      <c r="AN54" s="20"/>
+      <c r="AO54" s="20"/>
+      <c r="AP54" s="20"/>
+      <c r="AQ54" s="20"/>
+      <c r="AR54" s="20"/>
+      <c r="AS54" s="20"/>
+      <c r="AT54" s="20"/>
+      <c r="AU54" s="20"/>
+      <c r="AV54" s="20"/>
+      <c r="AW54" s="20"/>
+      <c r="AX54" s="20"/>
+      <c r="AY54" s="20"/>
+      <c r="AZ54" s="20"/>
+      <c r="BA54" s="20"/>
+      <c r="BB54" s="20"/>
+      <c r="BC54" s="20"/>
+      <c r="BD54" s="20"/>
+      <c r="BE54" s="20"/>
+    </row>
+    <row r="55" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="20"/>
+      <c r="AJ55" s="20"/>
+      <c r="AK55" s="20"/>
+      <c r="AL55" s="20"/>
+      <c r="AM55" s="20"/>
+      <c r="AN55" s="20"/>
+      <c r="AO55" s="20"/>
+      <c r="AP55" s="20"/>
+      <c r="AQ55" s="20"/>
+      <c r="AR55" s="20"/>
+      <c r="AS55" s="20"/>
+      <c r="AT55" s="20"/>
+      <c r="AU55" s="20"/>
+      <c r="AV55" s="20"/>
+      <c r="AW55" s="20"/>
+      <c r="AX55" s="20"/>
+      <c r="AY55" s="20"/>
+      <c r="AZ55" s="20"/>
+      <c r="BA55" s="20"/>
+      <c r="BB55" s="20"/>
+      <c r="BC55" s="20"/>
+      <c r="BD55" s="20"/>
+      <c r="BE55" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
